--- a/테이블/테이블 양식.xlsx
+++ b/테이블/테이블 양식.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\addmin\Desktop\Unreal\Project TirgerGhostField\기획\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C3CC82-4AFD-470F-B48B-C04ABE94193C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D67EB6-C9B1-41E6-A71D-4359E5CB1194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -437,7 +437,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -491,7 +491,7 @@
       <formula1>"True, False"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E1048576" xr:uid="{F206F7A0-D8FF-4DF3-9E20-24D3E8262089}">
-      <formula1>"Integer, Float, String, Boolean, Enum"</formula1>
+      <formula1>"Integer, Float, String, Boolean, Enum, Struct, Class&lt;&gt;"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
